--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F6F75-A553-4530-9B37-5D9AC6BB8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27253CEF-496E-44F5-879A-2DD0F25645A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Examples" sheetId="3" r:id="rId1"/>
+    <sheet name="Example-AttachFile" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -90,9 +91,6 @@
 }</t>
   </si>
   <si>
-    <t>https://live.virtualandemo.com/api/riskfactor/compute</t>
-  </si>
-  <si>
     <t>RiskFactor-DirtectResponse</t>
   </si>
   <si>
@@ -112,6 +110,39 @@
   </si>
   <si>
     <t>endpoint</t>
+  </si>
+  <si>
+    <t>idai</t>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+  </si>
+  <si>
+    <t>https://live.virtualandemo.com/riskfactor/compute</t>
+  </si>
+  <si>
+    <t>RequestHeaders</t>
+  </si>
+  <si>
+    <t>testExecuted=true</t>
+  </si>
+  <si>
+    <t>http://microservices.virtualandemo.com:8900/test</t>
+  </si>
+  <si>
+    <t>Accept=*/*</t>
+  </si>
+  <si>
+    <t>filestream=sample.json;serverurl=https://live.virtualandemo.com/api;dataload=APITEST.json;execute=true;type=VIRTUALAN</t>
+  </si>
+  <si>
+    <t>Attach file with multipart</t>
+  </si>
+  <si>
+    <t>Attachement-Example</t>
+  </si>
+  <si>
+    <t>MultiFormParams</t>
   </si>
 </sst>
 </file>
@@ -257,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,6 +303,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>12</v>
@@ -653,24 +685,24 @@
         <v>15</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>9</v>
@@ -688,13 +720,13 @@
         <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -703,4 +735,120 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7606762-C3E9-4662-AFD1-65E36C031EDD}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6">
+        <v>201</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B359BBAA-53E3-4808-AEB1-021233B4FFD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27253CEF-496E-44F5-879A-2DD0F25645A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78827D0D-977C-47DD-9BB6-DA8398E0AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Accept=*/*</t>
   </si>
   <si>
-    <t>filestream=sample.json;serverurl=https://live.virtualandemo.com/api;dataload=APITEST.json;execute=true;type=VIRTUALAN</t>
-  </si>
-  <si>
     <t>Attach file with multipart</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>MultiFormParams</t>
+  </si>
+  <si>
+    <t>filestream=sample.json;serverUrls=https://live.virtualandemo.com/api;dataload=APITEST.json;execute=true;type=VIRTUALAN;reportTitle=DemoTestReport</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>19</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
@@ -820,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>29</v>
@@ -838,7 +838,7 @@
         <v>201</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">

--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\jan-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78827D0D-977C-47DD-9BB6-DA8398E0AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115C93D-F0DE-4D57-8867-5EA7E6A6C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Examples" sheetId="3" r:id="rId1"/>
-    <sheet name="Example-AttachFile" sheetId="4" r:id="rId2"/>
+    <sheet name="REST-API-POST" sheetId="3" r:id="rId1"/>
+    <sheet name="Multipart-File-Example" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>StoreResponseVariables</t>
-  </si>
-  <si>
-    <t>Csvson</t>
   </si>
   <si>
     <t>EvaluateFunctionVariables</t>
@@ -106,9 +103,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>@examples</t>
-  </si>
-  <si>
     <t>endpoint</t>
   </si>
   <si>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>filestream=sample.json;serverUrls=https://live.virtualandemo.com/api;dataload=APITEST.json;execute=true;type=VIRTUALAN;reportTitle=DemoTestReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @simple-post  @simple-direct-response @direct-reponse-asignment @dynamic-verification </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @api-multipart</t>
   </si>
 </sst>
 </file>
@@ -265,22 +265,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -288,22 +290,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,13 +645,12 @@
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="34.42578125" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,67 +675,61 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>200</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>200</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="10">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
+      <c r="M2" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -734,15 +737,16 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{222B9008-B6F1-43AD-AB02-552007F39E4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7606762-C3E9-4662-AFD1-65E36C031EDD}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,93 +760,83 @@
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="98.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="13">
+        <v>201</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6">
-        <v>201</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115C93D-F0DE-4D57-8867-5EA7E6A6C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053D964-8DD7-4F40-A85E-BCBC1391859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="REST-API-POST" sheetId="3" r:id="rId1"/>
     <sheet name="Multipart-File-Example" sheetId="4" r:id="rId2"/>
+    <sheet name="Aggregate-type" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -143,13 +144,71 @@
   </si>
   <si>
     <t xml:space="preserve"> @api-multipart</t>
+  </si>
+  <si>
+    <t>ResponseProcessingType</t>
+  </si>
+  <si>
+    <t>Csvson</t>
+  </si>
+  <si>
+    <t>MultiRun</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>PetPost</t>
+  </si>
+  <si>
+    <t>post API Testing</t>
+  </si>
+  <si>
+    <t>https://live.virtualandemo.com/api/pets</t>
+  </si>
+  <si>
+    <t>{
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "id": &lt;petId&gt;,
+  "name": "&lt;petName&gt;",
+  "photoUrls": [
+    "string"
+  ],
+  "status": "available",
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "type": "DOGS"
+}</t>
+  </si>
+  <si>
+    <t>AggregatedStdType=API_AGGREGATE</t>
+  </si>
+  <si>
+    <t>&lt;var&gt;=.</t>
+  </si>
+  <si>
+    <t>totalMessageCount
+i~&lt;valueCount&gt;</t>
+  </si>
+  <si>
+    <t>petId|petName|var|valueCount;i~1000|Test1|jsonString_1|0;i~2000|Test2|jsonString_2|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @aggregate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +238,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -285,12 +387,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -314,12 +427,273 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,6 +704,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{372370F1-E4F8-4702-B796-2D2A350CC2DD}" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N2" xr:uid="{372370F1-E4F8-4702-B796-2D2A350CC2DD}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{058D2CD3-CC74-4FAE-ABD4-B5215E39F532}" name="TestCaseName" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B59FBA81-B179-4D6A-9B34-230037C64EA5}" name="TestCaseNameDesc" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{52CC4D09-78CD-4169-A9C0-8BD4AFCC9CA9}" name="Resource" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{74FCA55E-2BB7-4BFC-8EE0-D55095593FB6}" name="URL" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1E24662B-97DE-47BB-BC37-58C55C2EFD06}" name="ContentType" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8C6BD867-F048-47A2-8317-95A5B72EF55B}" name="RequestContent" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{5C91099A-4CFA-4AE6-9E4F-1653CA423696}" name="ResponseProcessingType" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{FE9E32AB-3934-4566-B2F8-BFE65D50CEF1}" name="ResponseContent" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{83425D75-860B-4BEA-84D4-DA5B7D5110D6}" name="Action" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{A3D5BD00-B3E3-4135-BC8B-5D975495E079}" name="StatusCode" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{3F3D7BFA-91CD-4F5B-AFF0-253CF97649F2}" name="StoreResponseVariables" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{995FE6B6-10DD-4DAD-A6C4-013E12FEAC4A}" name="Csvson" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D4D98ACD-76D4-4909-B1DD-373326ED7E9F}" name="MultiRun" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{7BAC0ED2-933F-4C4C-BAC8-0A1EF6A040F9}" name="Tags" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7606762-C3E9-4662-AFD1-65E36C031EDD}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,4 +1242,124 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057BEFD6-ABA0-4CED-98E5-DB6893176A90}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="23">
+        <v>201</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{52DCB926-CF8E-446F-A86D-1F1BBC096106}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F053D964-8DD7-4F40-A85E-BCBC1391859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FE24CC-EEBB-4B09-9C2B-02728B978758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="REST-API-POST" sheetId="3" r:id="rId1"/>
     <sheet name="Multipart-File-Example" sheetId="4" r:id="rId2"/>
     <sheet name="Aggregate-type" sheetId="5" r:id="rId3"/>
+    <sheet name="PDF-Verifier" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -202,6 +203,34 @@
   </si>
   <si>
     <t xml:space="preserve"> @aggregate</t>
+  </si>
+  <si>
+    <t>PDF-VERIFIER</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>application/pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @pdf</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>PDF-VERIFIER-2</t>
+  </si>
+  <si>
+    <t>VirtualanStdType=PDF_TEMPLATE</t>
+  </si>
+  <si>
+    <t>https://localhost:3000/api/pdf-validation.pdf</t>
+  </si>
+  <si>
+    <t>{"from":["FROM:","TC01-01-API","APRIL CSR 2022","100000 FedExGndDrivefourthfloo","West Wing","Pittsburgh, PA 15108"],"to":["TO:","FEDEX ECONOMY LABEL VALIDATION","MICHAEL WESTEN","ourthfloo 528 NW 7TH AVENU
+E","APT. #2","MIAMI, FL 33136"]}</t>
   </si>
 </sst>
 </file>
@@ -452,7 +481,284 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -707,23 +1013,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{372370F1-E4F8-4702-B796-2D2A350CC2DD}" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{372370F1-E4F8-4702-B796-2D2A350CC2DD}" name="Table1" displayName="Table1" ref="A1:N2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:N2" xr:uid="{372370F1-E4F8-4702-B796-2D2A350CC2DD}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{058D2CD3-CC74-4FAE-ABD4-B5215E39F532}" name="TestCaseName" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B59FBA81-B179-4D6A-9B34-230037C64EA5}" name="TestCaseNameDesc" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{52CC4D09-78CD-4169-A9C0-8BD4AFCC9CA9}" name="Resource" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{74FCA55E-2BB7-4BFC-8EE0-D55095593FB6}" name="URL" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1E24662B-97DE-47BB-BC37-58C55C2EFD06}" name="ContentType" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8C6BD867-F048-47A2-8317-95A5B72EF55B}" name="RequestContent" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5C91099A-4CFA-4AE6-9E4F-1653CA423696}" name="ResponseProcessingType" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{FE9E32AB-3934-4566-B2F8-BFE65D50CEF1}" name="ResponseContent" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{83425D75-860B-4BEA-84D4-DA5B7D5110D6}" name="Action" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{A3D5BD00-B3E3-4135-BC8B-5D975495E079}" name="StatusCode" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{3F3D7BFA-91CD-4F5B-AFF0-253CF97649F2}" name="StoreResponseVariables" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{995FE6B6-10DD-4DAD-A6C4-013E12FEAC4A}" name="Csvson" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{D4D98ACD-76D4-4909-B1DD-373326ED7E9F}" name="MultiRun" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{7BAC0ED2-933F-4C4C-BAC8-0A1EF6A040F9}" name="Tags" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{058D2CD3-CC74-4FAE-ABD4-B5215E39F532}" name="TestCaseName" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{B59FBA81-B179-4D6A-9B34-230037C64EA5}" name="TestCaseNameDesc" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{52CC4D09-78CD-4169-A9C0-8BD4AFCC9CA9}" name="Resource" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{74FCA55E-2BB7-4BFC-8EE0-D55095593FB6}" name="URL" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1E24662B-97DE-47BB-BC37-58C55C2EFD06}" name="ContentType" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{8C6BD867-F048-47A2-8317-95A5B72EF55B}" name="RequestContent" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{5C91099A-4CFA-4AE6-9E4F-1653CA423696}" name="ResponseProcessingType" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{FE9E32AB-3934-4566-B2F8-BFE65D50CEF1}" name="ResponseContent" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{83425D75-860B-4BEA-84D4-DA5B7D5110D6}" name="Action" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{A3D5BD00-B3E3-4135-BC8B-5D975495E079}" name="StatusCode" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{3F3D7BFA-91CD-4F5B-AFF0-253CF97649F2}" name="StoreResponseVariables" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{995FE6B6-10DD-4DAD-A6C4-013E12FEAC4A}" name="Csvson" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{D4D98ACD-76D4-4909-B1DD-373326ED7E9F}" name="MultiRun" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{7BAC0ED2-933F-4C4C-BAC8-0A1EF6A040F9}" name="Tags" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83FB713F-F171-4962-9B66-949724D9DFA5}" name="Table13" displayName="Table13" ref="A1:O2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:O2" xr:uid="{83FB713F-F171-4962-9B66-949724D9DFA5}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{010C6E9E-17C5-485D-900E-ADF85DA874E6}" name="TestCaseName" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{0D5A9E6F-DC91-445A-96F5-5F94C75B456E}" name="Type" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{0C8ABEE3-39BF-432D-8D6A-1BA71979DDB6}" name="TestCaseNameDesc" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{DA37BDFC-176A-4740-8F10-E803A27BEC08}" name="Resource" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{46DED082-54E2-4048-AD35-F9A6CAC2F2C3}" name="URL" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{39C25025-1EAC-47B5-AFC8-21A345DA1C03}" name="ContentType" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8E251210-0DEC-4F37-96ED-2B8534236C17}" name="RequestContent" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{4B66D47D-AA26-4DC8-9E43-53402AF41FF0}" name="ResponseProcessingType" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BF89AC59-84BE-43FC-908A-D85D313A5F3B}" name="ResponseContent" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BEC4BD83-6FD4-455F-93E4-5576D7503855}" name="Action" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{4E0D592A-E186-4F95-AB41-9F836ADF1263}" name="StatusCode" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BEB4CC20-86A5-4810-9974-A01090D8D725}" name="StoreResponseVariables" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E499F1FF-AA70-4FAB-A135-FBA8A6E38CE7}" name="Csvson" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{990B86B1-6905-48D4-AFB2-40E6CD69E12E}" name="MultiRun" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{CD09D076-0263-4B29-8542-69051EC1D48B}" name="Tags" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057BEFD6-ABA0-4CED-98E5-DB6893176A90}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,4 +1692,120 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DABC34-D038-43B1-AA9C-F6DF6E01672A}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="23">
+        <v>200</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E546A84-1BDB-4CB9-ADB0-F3CF1AF34387}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/rest-post/src/test/resources/rest/rest-post.xlsx
+++ b/rest-post/src/test/resources/rest/rest-post.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\rest-post\src\test\resources\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FE24CC-EEBB-4B09-9C2B-02728B978758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7985EDDB-4DC5-4E65-9D87-4B06C4FF6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="REST-API-POST" sheetId="3" r:id="rId1"/>
@@ -90,9 +90,6 @@
 }</t>
   </si>
   <si>
-    <t>RiskFactor-DirtectResponse</t>
-  </si>
-  <si>
     <t>riskFactor=.</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   <si>
     <t>{"from":["FROM:","TC01-01-API","APRIL CSR 2022","100000 FedExGndDrivefourthfloo","West Wing","Pittsburgh, PA 15108"],"to":["TO:","FEDEX ECONOMY LABEL VALIDATION","MICHAEL WESTEN","ourthfloo 528 NW 7TH AVENU
 E","APT. #2","MIAMI, FL 33136"]}</t>
+  </si>
+  <si>
+    <t>RiskFactor-DirectResponse</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>13</v>
@@ -1415,24 +1415,24 @@
         <v>14</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1450,13 +1450,13 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1513,57 +1513,57 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="13">
         <v>201</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1615,10 +1615,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>5</v>
@@ -1630,39 +1630,39 @@
         <v>13</v>
       </c>
       <c r="L1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="N1" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>9</v>
@@ -1671,16 +1671,16 @@
         <v>201</v>
       </c>
       <c r="K2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DABC34-D038-43B1-AA9C-F6DF6E01672A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H25"/>
     </sheetView>
   </sheetViews>
@@ -1736,10 +1736,10 @@
         <v>11</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>5</v>
@@ -1751,43 +1751,43 @@
         <v>13</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="O1" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="23">
         <v>200</v>
@@ -1796,7 +1796,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="27"/>
       <c r="O2" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
